--- a/File/CustomerServiceSheet.xlsx
+++ b/File/CustomerServiceSheet.xlsx
@@ -38,6 +38,9 @@
   </x:si>
   <x:si>
     <x:t>Team</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -388,13 +391,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H2"/>
+  <x:dimension ref="A1:I2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -418,6 +421,9 @@
       </x:c>
       <x:c r="H1" s="0" t="s">
         <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/File/CustomerServiceSheet.xlsx
+++ b/File/CustomerServiceSheet.xlsx
@@ -41,6 +41,156 @@
   </x:si>
   <x:si>
     <x:t>Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon, 28 Oct 2024 12:35:23 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Đông Phạm Trương Thu" &lt;dongptt21411@st.uel.edu.vn&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Đông Phạm Trương Thu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dongptt21411@st.uel.edu.vn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yêu cầu hỗ trợ sửa chữa sản phẩm Bếp điện từ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi NNY,
+Tôi là Nguyễn Khánh Linh. Sản phẩm Bếp điện từ của tôi (mã SKU: BDT-2023)
+bị lỗi không nóng dù đã thử nhiều mức nhiệt khác nhau.
+Ngày mua: 18/06/2023
+Mã đơn hàng: DH15005
+Xin vui lòng hỗ trợ kiểm tra và sửa chữa. Quý công ty có thể liên hệ với
+tôi qua email hoặc số điện thoại 0941234567.
+Trân trọng,
+SĐT: 0941234567
+*Pham Truong Thu Dong*
+University of Economics and Law (VNU - HCMC)
+Faculty of Information System
+Phone: 0842456510
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Đổi trả hàng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon, 28 Oct 2024 12:35:12 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hỗ trợ kỹ thuật sản phẩm Lò nướng</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi NNY,
+Sản phẩm Lò nướng của tôi (mã SKU: LN-2022) bị tắt đột ngột sau khoảng 5
+phút sử dụng và không thể bật lại được.
+Ngày mua: 22/07/2023
+Mã đơn hàng: DH14004
+Mong nhận được hỗ trợ sớm nhất. Vui lòng liên hệ qua số điện thoại
+0912123456 hoặc email này.
+Trân trọng,
+SĐT: 0912123456
+*Pham Truong Thu Dong*
+University of Economics and Law (VNU - HCMC)
+Faculty of Information System
+Phone: 0842456510
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon, 28 Oct 2024 12:34:27 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"My Hà" &lt;imhaanh17@gmail.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>My Hà</x:t>
+  </x:si>
+  <x:si>
+    <x:t>imhaanh17@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yêu cầu hỗ trợ về sản phẩm Điều hòa</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi NNY,
+Điều hòa của tôi (mã SKU: DA-2023) gặp lỗi không làm lạnh, dù đã chỉnh
+nhiệt độ thấp nhưng không thấy sự thay đổi.
+Ngày mua: 15/08/2023
+Mã đơn hàng: DH13003
+Vui lòng hướng dẫn cách giải quyết hoặc cử kỹ thuật viên kiểm tra. Liên hệ
+qua email này hoặc số điện thoại 0972345678.
+Trân trọng,
+SĐT: 0972345678
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon, 28 Oct 2024 12:33:57 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yêu cầu hỗ trợ kỹ thuật về sản phẩm Tivi thông minh</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi NNY,
+Tivi thông minh của tôi (mã SKU: TIVI-2024) gặp lỗi không thể kết nối mạng
+Wifi dù tín hiệu mạng vẫn ổn định.
+Ngày mua: 05/09/2023
+Mã đơn hàng: DH12002
+Rất mong quý công ty kiểm tra và hỗ trợ cách khắc phục. Xin vui lòng liên
+hệ với tôi qua email hoặc số điện thoại 0901234569.
+Trân trọng,
+SĐT: 0901234569
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mon, 28 Oct 2024 12:33:09 +0700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Thu Đông Phạm" &lt;imthudong@gmail.com&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Đông Phạm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>imthudong@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yêu cầu hỗ trợ kỹ thuật về sản phẩm Máy hút bụi</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kính gửi NNY,
+Sản phẩm Máy hút bụi tôi mua gần đây (mã SKU: MHB-2024) gặp vấn đề với khả
+năng hút bụi kém. Tôi đã kiểm tra bộ lọc và các phần khác, nhưng tình trạng
+không cải thiện.
+Ngày mua: 20/09/2023
+Mã đơn hàng: DH11001
+Vui lòng hỗ trợ hướng dẫn cách xử lý. Quý công ty có thể liên hệ qua số
+điện thoại 0987654322 hoặc email này.
+Trân trọng,
+SĐT: 0987654322
+-- 
+*Pham Truong Thu Dong*
+University of Economics and Law (VNU - HCMC)
+Faculty of Information System
+Phone: 0842456510
+Email: imthudong@gmail.com
+</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -426,6 +576,266 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9">
+      <x:c r="A9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9">
+      <x:c r="A10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:9">
+      <x:c r="A11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
